--- a/Methane/Methane_fall2022_update.xlsx
+++ b/Methane/Methane_fall2022_update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Methane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B298FEE8-BC4B-7446-BB92-ED4BB770D722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A716B9-499A-874C-A417-3BE6B4C15A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="1080" windowWidth="27240" windowHeight="16440" xr2:uid="{ED928149-F89A-A744-B4E9-9646057A4CE9}"/>
+    <workbookView xWindow="17800" yWindow="980" windowWidth="27240" windowHeight="16440" xr2:uid="{ED928149-F89A-A744-B4E9-9646057A4CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96196ECA-9EF2-3D41-9BD5-772CB4692420}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -627,31 +627,31 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
       </c>
       <c r="G2" s="3">
-        <v>44850</v>
+        <v>44893</v>
       </c>
       <c r="H2">
-        <v>8.9779999999999998</v>
+        <v>7.66</v>
       </c>
       <c r="I2">
-        <v>62.2605</v>
+        <v>62.407400000000003</v>
       </c>
       <c r="J2" s="9">
-        <v>9.5249041905630367</v>
+        <v>0.29399371864988444</v>
       </c>
       <c r="K2" s="9">
-        <v>421297.60726187151</v>
+        <v>12632.31247885853</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -659,28 +659,28 @@
         <v>35</v>
       </c>
       <c r="C3">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="3">
-        <v>44849</v>
+        <v>44893</v>
       </c>
       <c r="H3">
-        <v>7.5819999999999999</v>
+        <v>7.66</v>
       </c>
       <c r="I3">
-        <v>62.454999999999998</v>
+        <v>62.407400000000003</v>
       </c>
       <c r="J3" s="9">
-        <v>0.38989038734447323</v>
+        <v>0.31640789171296924</v>
       </c>
       <c r="K3" s="9">
-        <v>16713.548995648598</v>
+        <v>13595.403933289548</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -688,28 +688,28 @@
         <v>35</v>
       </c>
       <c r="C4">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
       </c>
       <c r="G4" s="3">
-        <v>44849</v>
+        <v>44893</v>
       </c>
       <c r="H4">
-        <v>7.8486669999999998</v>
+        <v>7.6319999999999997</v>
       </c>
       <c r="I4">
-        <v>62.511800000000001</v>
+        <v>62.359499999999997</v>
       </c>
       <c r="J4" s="9">
-        <v>1.4638109543270801E-2</v>
+        <v>8.6752484694356549E-2</v>
       </c>
       <c r="K4" s="9">
-        <v>630.3261453603219</v>
+        <v>3728.3221647778555</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -717,115 +717,118 @@
         <v>35</v>
       </c>
       <c r="C5">
-        <v>189</v>
+        <v>292</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
       </c>
       <c r="G5" s="3">
-        <v>44850</v>
+        <v>44893</v>
       </c>
       <c r="H5">
-        <v>8.4809999999999999</v>
+        <v>7.6319999999999997</v>
       </c>
       <c r="I5">
-        <v>62.266399999999997</v>
+        <v>62.359499999999997</v>
       </c>
       <c r="J5" s="9">
-        <v>6.8344818667661551</v>
+        <v>8.8423044764620817E-2</v>
       </c>
       <c r="K5" s="9">
-        <v>299258.41793827765</v>
+        <v>3800.1170667855936</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
       </c>
       <c r="G6" s="3">
-        <v>44850</v>
+        <v>44895</v>
       </c>
       <c r="H6">
-        <v>8.3819999999999997</v>
+        <v>7.5069999999999997</v>
       </c>
       <c r="I6">
-        <v>62.2806</v>
+        <v>62.358199999999997</v>
       </c>
       <c r="J6" s="9">
-        <v>4.60916725659437</v>
+        <v>0.18933441602527173</v>
       </c>
       <c r="K6" s="9">
-        <v>201370.84574492878</v>
+        <v>8116.4834307789761</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7">
-        <v>253</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
       </c>
       <c r="G7" s="3">
-        <v>44849</v>
+        <v>44895</v>
       </c>
       <c r="H7">
-        <v>7.9491670000000001</v>
+        <v>7.5380000000000003</v>
       </c>
       <c r="I7">
-        <v>62.540999999999997</v>
+        <v>62.3872</v>
       </c>
       <c r="J7" s="9">
-        <v>2.2364419827013453</v>
+        <v>2.515078544855494</v>
       </c>
       <c r="K7" s="9">
-        <v>96453.781472573013</v>
+        <v>107835.41477016486</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>261</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
       </c>
       <c r="G8" s="3">
-        <v>44850</v>
+        <v>44895</v>
       </c>
       <c r="H8">
-        <v>8.2486669999999993</v>
+        <v>7.4859999999999998</v>
       </c>
       <c r="I8">
-        <v>62.527900000000002</v>
+        <v>62.324199999999998</v>
       </c>
       <c r="J8" s="9">
-        <v>0.68653797492668922</v>
+        <v>1.2702257595754214</v>
       </c>
       <c r="K8" s="9">
-        <v>29795.327073081997</v>
+        <v>54459.148430078894</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -833,93 +836,86 @@
         <v>36</v>
       </c>
       <c r="C9">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G9" s="3">
         <v>44895</v>
       </c>
       <c r="H9">
-        <v>7.5069999999999997</v>
+        <v>7.5609999999999999</v>
       </c>
       <c r="I9">
-        <v>62.358199999999997</v>
+        <v>62.368099999999998</v>
       </c>
       <c r="J9" s="9">
-        <v>0.18933441602527173</v>
+        <v>9.6713633414598537</v>
       </c>
       <c r="K9" s="9">
-        <v>8116.4834307789761</v>
+        <v>414985.93609156995</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="5">
-        <v>251</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4"/>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>172</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
       <c r="G10" s="3">
-        <v>44850</v>
+        <v>44895</v>
       </c>
       <c r="H10">
-        <v>8.3819999999999997</v>
+        <v>7.4640000000000004</v>
       </c>
       <c r="I10">
-        <v>62.2806</v>
-      </c>
-      <c r="J10" s="10">
-        <v>8.5728971442812583</v>
-      </c>
-      <c r="K10" s="10">
-        <v>374543.04700232483</v>
+        <v>62.2761</v>
+      </c>
+      <c r="J10" s="9">
+        <v>3.8544485906273764</v>
+      </c>
+      <c r="K10" s="9">
+        <v>165307.80958375553</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G11" s="3">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="H11">
-        <v>7.5380000000000003</v>
+        <v>7.3090000000000002</v>
       </c>
       <c r="I11">
-        <v>62.3872</v>
+        <v>62.303800000000003</v>
       </c>
       <c r="J11" s="9">
-        <v>2.515078544855494</v>
+        <v>0.3492341212226262</v>
       </c>
       <c r="K11" s="9">
-        <v>107835.41477016486</v>
+        <v>14924.030056059366</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -927,28 +923,28 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G12" s="3">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="H12">
-        <v>7.4859999999999998</v>
+        <v>8.2889999999999997</v>
       </c>
       <c r="I12">
-        <v>62.324199999999998</v>
+        <v>62.336599999999997</v>
       </c>
       <c r="J12" s="9">
-        <v>1.2702257595754214</v>
+        <v>20.025335801281969</v>
       </c>
       <c r="K12" s="9">
-        <v>54459.148430078894</v>
+        <v>872465.00071128376</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -956,28 +952,28 @@
         <v>36</v>
       </c>
       <c r="C13">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G13" s="3">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="H13">
-        <v>7.5609999999999999</v>
+        <v>7.2839999999999998</v>
       </c>
       <c r="I13">
-        <v>62.368099999999998</v>
+        <v>62.2254</v>
       </c>
       <c r="J13" s="9">
-        <v>9.6713633414598537</v>
+        <v>0.91083956151209355</v>
       </c>
       <c r="K13" s="9">
-        <v>414985.93609156995</v>
+        <v>38952.675813157854</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -985,28 +981,28 @@
         <v>36</v>
       </c>
       <c r="C14">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G14" s="3">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="H14">
-        <v>7.4640000000000004</v>
+        <v>7.3479999999999999</v>
       </c>
       <c r="I14">
-        <v>62.2761</v>
+        <v>62.377699999999997</v>
       </c>
       <c r="J14" s="9">
-        <v>3.8544485906273764</v>
+        <v>0.29851415755330435</v>
       </c>
       <c r="K14" s="9">
-        <v>165307.80958375553</v>
+        <v>12751.581238953844</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1014,28 +1010,28 @@
         <v>36</v>
       </c>
       <c r="C15">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G15" s="3">
         <v>44894</v>
       </c>
       <c r="H15">
-        <v>7.3090000000000002</v>
+        <v>7.2869999999999999</v>
       </c>
       <c r="I15">
-        <v>62.303800000000003</v>
+        <v>62.251100000000001</v>
       </c>
       <c r="J15" s="9">
-        <v>0.3492341212226262</v>
+        <v>0</v>
       </c>
       <c r="K15" s="9">
-        <v>14924.030056059366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1043,550 +1039,556 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G16" s="3">
-        <v>44896</v>
+        <v>44894</v>
       </c>
       <c r="H16">
-        <v>8.2889999999999997</v>
+        <v>7.2869999999999999</v>
       </c>
       <c r="I16">
-        <v>62.336599999999997</v>
+        <v>62.251100000000001</v>
       </c>
       <c r="J16" s="9">
-        <v>20.025335801281969</v>
+        <v>0</v>
       </c>
       <c r="K16" s="9">
-        <v>872465.00071128376</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>36</v>
       </c>
       <c r="C17">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G17" s="3">
         <v>44894</v>
       </c>
       <c r="H17">
-        <v>7.2839999999999998</v>
+        <v>7.3209999999999997</v>
       </c>
       <c r="I17">
-        <v>62.2254</v>
+        <v>62.335799999999999</v>
       </c>
       <c r="J17" s="9">
-        <v>0.91083956151209355</v>
+        <v>0.82994965124170539</v>
       </c>
       <c r="K17" s="9">
-        <v>38952.675813157854</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+        <v>35457.180361194543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>36</v>
       </c>
       <c r="C18">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G18" s="3">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="H18">
-        <v>7.3479999999999999</v>
+        <v>7.5609999999999999</v>
       </c>
       <c r="I18">
-        <v>62.377699999999997</v>
+        <v>62.368099999999998</v>
       </c>
       <c r="J18" s="9">
-        <v>0.29851415755330435</v>
+        <v>8.2001823011734256</v>
       </c>
       <c r="K18" s="9">
-        <v>12751.581238953844</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+        <v>351859.42335409299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>36</v>
       </c>
       <c r="C19">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" s="3">
         <v>44894</v>
       </c>
       <c r="H19">
-        <v>7.2869999999999999</v>
+        <v>7.3209999999999997</v>
       </c>
       <c r="I19">
-        <v>62.251100000000001</v>
+        <v>62.335799999999999</v>
       </c>
       <c r="J19" s="9">
-        <v>0</v>
+        <v>0.85425867960349144</v>
       </c>
       <c r="K19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+        <v>36495.712761009025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>36</v>
       </c>
       <c r="C20">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" s="3">
         <v>44894</v>
       </c>
       <c r="H20">
-        <v>7.2869999999999999</v>
+        <v>7.3479999999999999</v>
       </c>
       <c r="I20">
-        <v>62.251100000000001</v>
+        <v>62.377699999999997</v>
       </c>
       <c r="J20" s="9">
-        <v>0</v>
+        <v>0.30243740085485454</v>
       </c>
       <c r="K20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+        <v>12919.16979183836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>36</v>
       </c>
       <c r="C21">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G21" s="3">
         <v>44894</v>
       </c>
       <c r="H21">
-        <v>7.3209999999999997</v>
+        <v>7.2839999999999998</v>
       </c>
       <c r="I21">
-        <v>62.335799999999999</v>
+        <v>62.2254</v>
       </c>
       <c r="J21" s="9">
-        <v>0.82994965124170539</v>
+        <v>0.8844601507769323</v>
       </c>
       <c r="K21" s="9">
-        <v>35457.180361194543</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+        <v>37824.542299937333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>36</v>
       </c>
       <c r="C22">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G22" s="3">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="H22">
-        <v>7.5609999999999999</v>
+        <v>8.2260000000000009</v>
       </c>
       <c r="I22">
-        <v>62.368099999999998</v>
+        <v>62.319800000000001</v>
       </c>
       <c r="J22" s="9">
-        <v>8.2001823011734256</v>
+        <v>1.7017112998177328</v>
       </c>
       <c r="K22" s="9">
-        <v>351859.42335409299</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+        <v>74065.906489089088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>36</v>
       </c>
       <c r="C23">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G23" s="3">
         <v>44894</v>
       </c>
       <c r="H23">
-        <v>7.3209999999999997</v>
+        <v>7.3959999999999999</v>
       </c>
       <c r="I23">
-        <v>62.335799999999999</v>
+        <v>62.4071</v>
       </c>
       <c r="J23" s="9">
-        <v>0.85425867960349144</v>
+        <v>5.2387842182520101</v>
       </c>
       <c r="K23" s="9">
-        <v>36495.712761009025</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+        <v>223897.28358095585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G24" s="3">
         <v>44894</v>
       </c>
       <c r="H24">
-        <v>7.3479999999999999</v>
+        <v>7.3959999999999999</v>
       </c>
       <c r="I24">
-        <v>62.377699999999997</v>
+        <v>62.4071</v>
       </c>
       <c r="J24" s="9">
-        <v>0.30243740085485454</v>
+        <v>2.2586109538381098</v>
       </c>
       <c r="K24" s="9">
-        <v>12919.16979183836</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+        <v>96529.430524870317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>36</v>
       </c>
       <c r="C25">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G25" s="3">
+        <v>44895</v>
+      </c>
+      <c r="H25">
+        <v>7.4640000000000004</v>
+      </c>
+      <c r="I25">
+        <v>62.2761</v>
+      </c>
+      <c r="J25" s="9">
+        <v>3.6228884825856373</v>
+      </c>
+      <c r="K25" s="9">
+        <v>155376.76669984276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <v>266</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="3">
         <v>44894</v>
       </c>
-      <c r="H25">
-        <v>7.2839999999999998</v>
-      </c>
-      <c r="I25">
-        <v>62.2254</v>
-      </c>
-      <c r="J25" s="9">
-        <v>0.8844601507769323</v>
-      </c>
-      <c r="K25" s="9">
-        <v>37824.542299937333</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26">
-        <v>245</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="3">
-        <v>44896</v>
-      </c>
       <c r="H26">
-        <v>8.2260000000000009</v>
+        <v>7.3090000000000002</v>
       </c>
       <c r="I26">
-        <v>62.319800000000001</v>
+        <v>62.303800000000003</v>
       </c>
       <c r="J26" s="9">
-        <v>1.7017112998177328</v>
+        <v>0.22136622595472194</v>
       </c>
       <c r="K26" s="9">
-        <v>74065.906489089088</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+        <v>9459.7750013055138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>36</v>
       </c>
       <c r="C27">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G27" s="3">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="H27">
-        <v>7.3959999999999999</v>
+        <v>7.5380000000000003</v>
       </c>
       <c r="I27">
-        <v>62.4071</v>
+        <v>62.3872</v>
       </c>
       <c r="J27" s="9">
-        <v>5.2387842182520101</v>
+        <v>2.5549926012827555</v>
       </c>
       <c r="K27" s="9">
-        <v>223897.28358095585</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+        <v>109546.75250901896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G28" s="3">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="H28">
-        <v>7.3959999999999999</v>
+        <v>7.5069999999999997</v>
       </c>
       <c r="I28">
-        <v>62.4071</v>
+        <v>62.358199999999997</v>
       </c>
       <c r="J28" s="9">
-        <v>2.2586109538381098</v>
+        <v>0.17889161000022261</v>
       </c>
       <c r="K28" s="9">
-        <v>96529.430524870317</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+        <v>7668.8159445791243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>36</v>
       </c>
       <c r="C29">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G29" s="3">
         <v>44895</v>
       </c>
       <c r="H29">
-        <v>7.4640000000000004</v>
+        <v>7.4859999999999998</v>
       </c>
       <c r="I29">
-        <v>62.2761</v>
+        <v>62.324199999999998</v>
       </c>
       <c r="J29" s="9">
-        <v>3.6228884825856373</v>
+        <v>1.5216310014742374</v>
       </c>
       <c r="K29" s="9">
-        <v>155376.76669984276</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+        <v>65237.795675623565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>36</v>
       </c>
       <c r="C30">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G30" s="3">
-        <v>44894</v>
+        <v>44896</v>
       </c>
       <c r="H30">
-        <v>7.3090000000000002</v>
+        <v>8.2260000000000009</v>
       </c>
       <c r="I30">
-        <v>62.303800000000003</v>
+        <v>62.319800000000001</v>
       </c>
       <c r="J30" s="9">
-        <v>0.22136622595472194</v>
+        <v>1.649988494796188</v>
       </c>
       <c r="K30" s="9">
-        <v>9459.7750013055138</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31">
-        <v>269</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
-        <v>13</v>
-      </c>
+        <v>71814.704160886031</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="4">
+        <v>205</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="4"/>
       <c r="G31" s="3">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="H31">
-        <v>7.5380000000000003</v>
+        <v>8.2889999999999997</v>
       </c>
       <c r="I31">
-        <v>62.3872</v>
-      </c>
-      <c r="J31" s="9">
-        <v>2.5549926012827555</v>
-      </c>
-      <c r="K31" s="9">
-        <v>109546.75250901896</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32">
-        <v>274</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="3">
-        <v>44895</v>
-      </c>
-      <c r="H32">
-        <v>7.5069999999999997</v>
-      </c>
-      <c r="I32">
-        <v>62.358199999999997</v>
-      </c>
-      <c r="J32" s="9">
-        <v>0.17889161000022261</v>
-      </c>
-      <c r="K32" s="9">
-        <v>7668.8159445791243</v>
+        <v>62.336599999999997</v>
+      </c>
+      <c r="J31" s="10">
+        <v>16.767452263154595</v>
+      </c>
+      <c r="K31" s="10">
+        <v>730525.34029232501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="5">
+        <v>205</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6">
+        <v>44896</v>
+      </c>
+      <c r="H32" s="5">
+        <v>8.2889999999999997</v>
+      </c>
+      <c r="I32" s="5">
+        <v>62.336599999999997</v>
+      </c>
+      <c r="J32" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K32" s="11" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
       </c>
       <c r="G33" s="3">
-        <v>44895</v>
+        <v>44850</v>
       </c>
       <c r="H33">
-        <v>7.4859999999999998</v>
+        <v>8.2486669999999993</v>
       </c>
       <c r="I33">
-        <v>62.324199999999998</v>
+        <v>62.527900000000002</v>
       </c>
       <c r="J33" s="9">
-        <v>1.5216310014742374</v>
+        <v>0.68653797492668922</v>
       </c>
       <c r="K33" s="9">
-        <v>65237.795675623565</v>
+        <v>29795.327073081997</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34">
-        <v>276</v>
+        <v>147</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
       </c>
       <c r="G34" s="3">
-        <v>44896</v>
+        <v>44850</v>
       </c>
       <c r="H34">
-        <v>8.2260000000000009</v>
+        <v>8.2486669999999993</v>
       </c>
       <c r="I34">
-        <v>62.319800000000001</v>
+        <v>62.533700000000003</v>
       </c>
       <c r="J34" s="9">
-        <v>1.649988494796188</v>
+        <v>0.37266303037947729</v>
       </c>
       <c r="K34" s="9">
-        <v>71814.704160886031</v>
+        <v>16171.846894619906</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -1594,42 +1596,42 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E35">
         <v>2</v>
       </c>
       <c r="G35" s="3">
-        <v>44849</v>
+        <v>44850</v>
       </c>
       <c r="H35">
-        <v>7.5819999999999999</v>
+        <v>8.2486669999999993</v>
       </c>
       <c r="I35">
-        <v>62.454999999999998</v>
+        <v>62.533700000000003</v>
       </c>
       <c r="J35" s="9">
-        <v>7.4250690284760043E-2</v>
+        <v>0.34357522423985531</v>
       </c>
       <c r="K35" s="9">
-        <v>3182.9267668982907</v>
+        <v>14909.571034008388</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="3">
         <v>44850</v>
@@ -1638,13 +1640,13 @@
         <v>8.2486669999999993</v>
       </c>
       <c r="I36">
-        <v>62.533700000000003</v>
+        <v>62.280700000000003</v>
       </c>
       <c r="J36" s="9">
-        <v>0.37266303037947729</v>
+        <v>0.93851053454269762</v>
       </c>
       <c r="K36" s="9">
-        <v>16171.846894619906</v>
+        <v>40892.447271057426</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -1652,28 +1654,28 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="3">
         <v>44849</v>
       </c>
       <c r="H37">
-        <v>7.8486669999999998</v>
+        <v>7.9491670000000001</v>
       </c>
       <c r="I37">
-        <v>62.511800000000001</v>
+        <v>62.540999999999997</v>
       </c>
       <c r="J37" s="9">
-        <v>8.8611794037061608E-3</v>
+        <v>2.2364419827013453</v>
       </c>
       <c r="K37" s="9">
-        <v>381.56792312379071</v>
+        <v>96453.781472573013</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -1681,43 +1683,45 @@
         <v>35</v>
       </c>
       <c r="C38">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="3">
-        <v>44850</v>
+        <v>44849</v>
       </c>
       <c r="H38">
-        <v>8.2486669999999993</v>
+        <v>7.9491670000000001</v>
       </c>
       <c r="I38">
-        <v>62.533700000000003</v>
+        <v>62.5518</v>
       </c>
       <c r="J38" s="9">
-        <v>0.34357522423985531</v>
+        <v>1.1831534394968557</v>
       </c>
       <c r="K38" s="9">
-        <v>14909.571034008388</v>
+        <v>51018.501997231411</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39">
-        <v>162</v>
-      </c>
+      <c r="A39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="4"/>
       <c r="D39" t="s">
         <v>8</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
+      <c r="E39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="4"/>
       <c r="G39" s="3">
         <v>44849</v>
       </c>
@@ -1727,40 +1731,40 @@
       <c r="I39">
         <v>62.5518</v>
       </c>
-      <c r="J39" s="9">
-        <v>1.1831534394968557</v>
-      </c>
-      <c r="K39" s="9">
-        <v>51018.501997231411</v>
+      <c r="J39" s="10">
+        <v>0.21595326991371189</v>
+      </c>
+      <c r="K39" s="10">
+        <v>9312.073958122186</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C40">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="3">
-        <v>44850</v>
+        <v>44849</v>
       </c>
       <c r="H40">
-        <v>8.4809999999999999</v>
+        <v>7.9491670000000001</v>
       </c>
       <c r="I40">
-        <v>62.266399999999997</v>
+        <v>62.5518</v>
       </c>
       <c r="J40" s="9">
-        <v>7.6191855301895623</v>
+        <v>2.7438858744601951</v>
       </c>
       <c r="K40" s="9">
-        <v>333617.8882601402</v>
+        <v>118318.50569259538</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -1768,28 +1772,28 @@
         <v>35</v>
       </c>
       <c r="C41">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="G41" s="3">
-        <v>44850</v>
+        <v>44849</v>
       </c>
       <c r="H41">
-        <v>7.5893329999999999</v>
+        <v>7.8486669999999998</v>
       </c>
       <c r="I41">
-        <v>62.4405</v>
+        <v>62.511800000000001</v>
       </c>
       <c r="J41" s="9">
-        <v>0.2093479518353035</v>
+        <v>1.4638109543270801E-2</v>
       </c>
       <c r="K41" s="9">
-        <v>8977.602270332789</v>
+        <v>630.3261453603219</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -1797,28 +1801,28 @@
         <v>35</v>
       </c>
       <c r="C42">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
       </c>
       <c r="G42" s="3">
-        <v>44893</v>
+        <v>44849</v>
       </c>
       <c r="H42">
-        <v>7.66</v>
+        <v>7.8486669999999998</v>
       </c>
       <c r="I42">
-        <v>62.407400000000003</v>
+        <v>62.511800000000001</v>
       </c>
       <c r="J42" s="9">
-        <v>0.29399371864988444</v>
+        <v>8.8611794037061608E-3</v>
       </c>
       <c r="K42" s="9">
-        <v>12632.31247885853</v>
+        <v>381.56792312379071</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -1826,57 +1830,57 @@
         <v>35</v>
       </c>
       <c r="C43">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
       </c>
       <c r="G43" s="3">
-        <v>44893</v>
+        <v>44849</v>
       </c>
       <c r="H43">
-        <v>7.66</v>
+        <v>7.8486669999999998</v>
       </c>
       <c r="I43">
-        <v>62.407400000000003</v>
+        <v>62.494900000000001</v>
       </c>
       <c r="J43" s="9">
-        <v>0.31640789171296924</v>
+        <v>0</v>
       </c>
       <c r="K43" s="9">
-        <v>13595.403933289548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
       <c r="G44" s="3">
-        <v>44850</v>
+        <v>44849</v>
       </c>
       <c r="H44">
-        <v>8.4809999999999999</v>
+        <v>7.8486669999999998</v>
       </c>
       <c r="I44">
-        <v>62.266399999999997</v>
+        <v>62.511800000000001</v>
       </c>
       <c r="J44" s="9">
-        <v>4.5851876764218256</v>
+        <v>0</v>
       </c>
       <c r="K44" s="9">
-        <v>200769.57357490811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -1884,10 +1888,10 @@
         <v>35</v>
       </c>
       <c r="C45">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="D45" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1896,76 +1900,78 @@
         <v>44850</v>
       </c>
       <c r="H45">
-        <v>8.9779999999999998</v>
+        <v>8.3819999999999997</v>
       </c>
       <c r="I45">
-        <v>62.2605</v>
+        <v>62.2806</v>
       </c>
       <c r="J45" s="9">
-        <v>1.9304681698646704</v>
+        <v>4.60916725659437</v>
       </c>
       <c r="K45" s="9">
-        <v>85386.855824227852</v>
+        <v>201370.84574492878</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46">
-        <v>204</v>
-      </c>
-      <c r="D46" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46">
+      <c r="A46" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="5">
+        <v>251</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="5">
         <v>2</v>
       </c>
+      <c r="F46" s="4"/>
       <c r="G46" s="3">
         <v>44850</v>
       </c>
       <c r="H46">
-        <v>8.9779999999999998</v>
+        <v>8.3819999999999997</v>
       </c>
       <c r="I46">
-        <v>62.2605</v>
-      </c>
-      <c r="J46" s="9">
-        <v>6.7506510441649734</v>
-      </c>
-      <c r="K46" s="9">
-        <v>298589.15905782371</v>
+        <v>62.2806</v>
+      </c>
+      <c r="J46" s="10">
+        <v>8.5728971442812583</v>
+      </c>
+      <c r="K46" s="10">
+        <v>374543.04700232483</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="4"/>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47">
+        <v>225</v>
+      </c>
       <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
       <c r="G47" s="3">
-        <v>44849</v>
+        <v>44850</v>
       </c>
       <c r="H47">
-        <v>7.9491670000000001</v>
+        <v>8.3819999999999997</v>
       </c>
       <c r="I47">
-        <v>62.5518</v>
-      </c>
-      <c r="J47" s="10">
-        <v>0.21595326991371189</v>
-      </c>
-      <c r="K47" s="10">
-        <v>9312.073958122186</v>
+        <v>62.2806</v>
+      </c>
+      <c r="J47" s="9">
+        <v>8.3072401808303358</v>
+      </c>
+      <c r="K47" s="9">
+        <v>362936.70589339559</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -1973,61 +1979,59 @@
         <v>35</v>
       </c>
       <c r="C48">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="3">
         <v>44850</v>
       </c>
       <c r="H48">
-        <v>8.4809999999999999</v>
+        <v>8.3819999999999997</v>
       </c>
       <c r="I48">
-        <v>62.266399999999997</v>
+        <v>62.278799999999997</v>
       </c>
       <c r="J48" s="9">
-        <v>6.4497325256245679</v>
+        <v>8.4929610077047553</v>
       </c>
       <c r="K48" s="9">
-        <v>282411.56965081469</v>
+        <v>371061.42508832493</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="4">
-        <v>205</v>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="5">
+        <v>251</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="3">
-        <v>44896</v>
-      </c>
-      <c r="H49">
-        <v>8.2889999999999997</v>
-      </c>
-      <c r="I49">
-        <v>62.336599999999997</v>
-      </c>
-      <c r="J49" s="10">
-        <v>16.767452263154595</v>
-      </c>
-      <c r="K49" s="10">
-        <v>730525.34029232501</v>
+        <v>7</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="6">
+        <v>44850</v>
+      </c>
+      <c r="H49" s="5">
+        <v>8.3819999999999997</v>
+      </c>
+      <c r="I49" s="5">
+        <v>62.2806</v>
+      </c>
+      <c r="J49" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K49" s="11" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -2035,28 +2039,28 @@
         <v>35</v>
       </c>
       <c r="C50">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
       </c>
       <c r="G50" s="3">
-        <v>44893</v>
+        <v>44850</v>
       </c>
       <c r="H50">
-        <v>7.6319999999999997</v>
+        <v>8.4809999999999999</v>
       </c>
       <c r="I50">
-        <v>62.359499999999997</v>
+        <v>62.266399999999997</v>
       </c>
       <c r="J50" s="9">
-        <v>8.6752484694356549E-2</v>
+        <v>6.8344818667661551</v>
       </c>
       <c r="K50" s="9">
-        <v>3728.3221647778555</v>
+        <v>299258.41793827765</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -2064,28 +2068,28 @@
         <v>35</v>
       </c>
       <c r="C51">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="3">
         <v>44850</v>
       </c>
       <c r="H51">
-        <v>8.3819999999999997</v>
+        <v>8.4809999999999999</v>
       </c>
       <c r="I51">
-        <v>62.2806</v>
+        <v>62.266399999999997</v>
       </c>
       <c r="J51" s="9">
-        <v>8.3072401808303358</v>
+        <v>7.6191855301895623</v>
       </c>
       <c r="K51" s="9">
-        <v>362936.70589339559</v>
+        <v>333617.8882601402</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -2093,28 +2097,28 @@
         <v>35</v>
       </c>
       <c r="C52">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="3">
         <v>44850</v>
       </c>
       <c r="H52">
-        <v>8.3819999999999997</v>
+        <v>8.4809999999999999</v>
       </c>
       <c r="I52">
-        <v>62.278799999999997</v>
+        <v>62.266399999999997</v>
       </c>
       <c r="J52" s="9">
-        <v>8.4929610077047553</v>
+        <v>4.5851876764218256</v>
       </c>
       <c r="K52" s="9">
-        <v>371061.42508832493</v>
+        <v>200769.57357490811</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -2122,57 +2126,57 @@
         <v>35</v>
       </c>
       <c r="C53">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="D53" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="3">
         <v>44850</v>
       </c>
       <c r="H53">
-        <v>7.5893329999999999</v>
+        <v>8.4809999999999999</v>
       </c>
       <c r="I53">
-        <v>62.435400000000001</v>
+        <v>62.266399999999997</v>
       </c>
       <c r="J53" s="9">
-        <v>0.17303282062422187</v>
+        <v>6.4497325256245679</v>
       </c>
       <c r="K53" s="9">
-        <v>7420.8833660490245</v>
+        <v>282411.56965081469</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C54">
-        <v>241</v>
+        <v>146</v>
       </c>
       <c r="D54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="3">
-        <v>44849</v>
+        <v>44850</v>
       </c>
       <c r="H54">
-        <v>7.5819999999999999</v>
+        <v>8.9779999999999998</v>
       </c>
       <c r="I54">
-        <v>62.470199999999998</v>
+        <v>62.2605</v>
       </c>
       <c r="J54" s="9">
-        <v>7.1630056877480405E-2</v>
+        <v>9.5249041905630367</v>
       </c>
       <c r="K54" s="9">
-        <v>3069.8401600444568</v>
+        <v>421297.60726187151</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -2180,28 +2184,28 @@
         <v>35</v>
       </c>
       <c r="C55">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="D55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="G55" s="3">
-        <v>44849</v>
+        <v>44850</v>
       </c>
       <c r="H55">
-        <v>7.5819999999999999</v>
+        <v>8.9779999999999998</v>
       </c>
       <c r="I55">
-        <v>62.454999999999998</v>
+        <v>62.2605</v>
       </c>
       <c r="J55" s="9">
-        <v>7.3150927775095742E-2</v>
+        <v>1.9304681698646704</v>
       </c>
       <c r="K55" s="9">
-        <v>3135.7829152274571</v>
+        <v>85386.855824227852</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -2209,39 +2213,39 @@
         <v>35</v>
       </c>
       <c r="C56">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="D56" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" s="3">
-        <v>44849</v>
+        <v>44850</v>
       </c>
       <c r="H56">
-        <v>7.8486669999999998</v>
+        <v>8.9779999999999998</v>
       </c>
       <c r="I56">
-        <v>62.494900000000001</v>
+        <v>62.2605</v>
       </c>
       <c r="J56" s="9">
-        <v>0</v>
+        <v>6.7506510441649734</v>
       </c>
       <c r="K56" s="9">
-        <v>0</v>
+        <v>298589.15905782371</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C57">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="D57" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -2250,16 +2254,16 @@
         <v>44850</v>
       </c>
       <c r="H57">
-        <v>7.5893329999999999</v>
+        <v>8.9779999999999998</v>
       </c>
       <c r="I57">
-        <v>62.4221</v>
+        <v>62.2605</v>
       </c>
       <c r="J57" s="9">
-        <v>0.26400760977556403</v>
+        <v>10.74454595576808</v>
       </c>
       <c r="K57" s="9">
-        <v>11324.944622755314</v>
+        <v>475243.78321465629</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -2267,162 +2271,158 @@
         <v>35</v>
       </c>
       <c r="C58">
-        <v>292</v>
+        <v>167</v>
       </c>
       <c r="D58" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
       </c>
       <c r="G58" s="3">
-        <v>44893</v>
+        <v>44849</v>
       </c>
       <c r="H58">
-        <v>7.6319999999999997</v>
+        <v>7.5819999999999999</v>
       </c>
       <c r="I58">
-        <v>62.359499999999997</v>
+        <v>62.454999999999998</v>
       </c>
       <c r="J58" s="9">
-        <v>8.8423044764620817E-2</v>
+        <v>0.38989038734447323</v>
       </c>
       <c r="K58" s="9">
-        <v>3800.1170667855936</v>
+        <v>16713.548995648598</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="5">
-        <v>205</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="6">
-        <v>44896</v>
-      </c>
-      <c r="H59" s="5">
-        <v>8.2889999999999997</v>
-      </c>
-      <c r="I59" s="5">
-        <v>62.336599999999997</v>
-      </c>
-      <c r="J59" s="11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K59" s="11" t="e">
-        <v>#VALUE!</v>
+      <c r="B59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59">
+        <v>143</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="G59" s="3">
+        <v>44849</v>
+      </c>
+      <c r="H59">
+        <v>7.5819999999999999</v>
+      </c>
+      <c r="I59">
+        <v>62.454999999999998</v>
+      </c>
+      <c r="J59" s="9">
+        <v>7.4250690284760043E-2</v>
+      </c>
+      <c r="K59" s="9">
+        <v>3182.9267668982907</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="5">
-        <v>251</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="5">
-        <v>2</v>
-      </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="6">
-        <v>44850</v>
-      </c>
-      <c r="H60" s="5">
-        <v>8.3819999999999997</v>
-      </c>
-      <c r="I60" s="5">
-        <v>62.2806</v>
-      </c>
-      <c r="J60" s="11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K60" s="11" t="e">
-        <v>#VALUE!</v>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60">
+        <v>241</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>44849</v>
+      </c>
+      <c r="H60">
+        <v>7.5819999999999999</v>
+      </c>
+      <c r="I60">
+        <v>62.470199999999998</v>
+      </c>
+      <c r="J60" s="9">
+        <v>7.1630056877480405E-2</v>
+      </c>
+      <c r="K60" s="9">
+        <v>3069.8401600444568</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C61">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="D61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" s="3">
         <v>44849</v>
       </c>
       <c r="H61">
-        <v>7.8486669999999998</v>
+        <v>7.5819999999999999</v>
       </c>
       <c r="I61">
-        <v>62.511800000000001</v>
+        <v>62.454999999999998</v>
       </c>
       <c r="J61" s="9">
-        <v>0</v>
+        <v>7.3150927775095742E-2</v>
       </c>
       <c r="K61" s="9">
-        <v>0</v>
+        <v>3135.7829152274571</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C62">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" s="3">
-        <v>44849</v>
+        <v>44850</v>
       </c>
       <c r="H62">
-        <v>7.9491670000000001</v>
+        <v>7.5893329999999999</v>
       </c>
       <c r="I62">
-        <v>62.5518</v>
+        <v>62.4405</v>
       </c>
       <c r="J62" s="9">
-        <v>2.7438858744601951</v>
+        <v>0.2093479518353035</v>
       </c>
       <c r="K62" s="9">
-        <v>118318.50569259538</v>
+        <v>8977.602270332789</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C63">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="D63" t="s">
         <v>25</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" s="3">
         <v>44850</v>
@@ -2431,24 +2431,24 @@
         <v>7.5893329999999999</v>
       </c>
       <c r="I63">
-        <v>62.4405</v>
+        <v>62.435400000000001</v>
       </c>
       <c r="J63" s="9">
-        <v>0.3014829046492094</v>
+        <v>0.17303282062422187</v>
       </c>
       <c r="K63" s="9">
-        <v>12928.684448628261</v>
+        <v>7420.8833660490245</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C64">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="D64" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -2457,16 +2457,16 @@
         <v>44850</v>
       </c>
       <c r="H64">
-        <v>8.9779999999999998</v>
+        <v>7.5893329999999999</v>
       </c>
       <c r="I64">
-        <v>62.2605</v>
+        <v>62.4221</v>
       </c>
       <c r="J64" s="9">
-        <v>10.74454595576808</v>
+        <v>0.26400760977556403</v>
       </c>
       <c r="K64" s="9">
-        <v>475243.78321465629</v>
+        <v>11324.944622755314</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
@@ -2474,31 +2474,34 @@
         <v>36</v>
       </c>
       <c r="C65">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" s="3">
         <v>44850</v>
       </c>
       <c r="H65">
-        <v>8.2486669999999993</v>
+        <v>7.5893329999999999</v>
       </c>
       <c r="I65">
-        <v>62.280700000000003</v>
+        <v>62.4405</v>
       </c>
       <c r="J65" s="9">
-        <v>0.93851053454269762</v>
+        <v>0.3014829046492094</v>
       </c>
       <c r="K65" s="9">
-        <v>40892.447271057426</v>
+        <v>12928.684448628261</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K65">
+    <sortCondition ref="D2:D65"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>